--- a/data/trans_orig/P59A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>26662</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17214</v>
+        <v>17912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38661</v>
+        <v>38910</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05765569755499599</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0372254296546345</v>
+        <v>0.03873548405500919</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08360451020308775</v>
+        <v>0.08414233193616796</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -765,19 +765,19 @@
         <v>42922</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31343</v>
+        <v>30564</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57193</v>
+        <v>56604</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09906840345813583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0723429376760206</v>
+        <v>0.07054567154325117</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1320077448361935</v>
+        <v>0.1306468883699791</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -786,19 +786,19 @@
         <v>69584</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55980</v>
+        <v>55967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>88170</v>
+        <v>88448</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07768766403169522</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0624999870459472</v>
+        <v>0.0624851283048283</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09843778950339777</v>
+        <v>0.09874898711346876</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>435768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423769</v>
+        <v>423520</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>445216</v>
+        <v>444518</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.942344302445004</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9163954897969121</v>
+        <v>0.915857668063832</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9627745703453654</v>
+        <v>0.9612645159449908</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>412</v>
@@ -836,19 +836,19 @@
         <v>390336</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>376065</v>
+        <v>376654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>401915</v>
+        <v>402694</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9009315965418642</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8679922551638064</v>
+        <v>0.8693531116300209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9276570623239794</v>
+        <v>0.9294543284567488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>853</v>
@@ -857,19 +857,19 @@
         <v>826104</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>807518</v>
+        <v>807240</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>839708</v>
+        <v>839721</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9223123359683048</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9015622104966023</v>
+        <v>0.9012510128865312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9375000129540528</v>
+        <v>0.9375148716951717</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>106944</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89966</v>
+        <v>89894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125732</v>
+        <v>127185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2419399459312082</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2035302260508302</v>
+        <v>0.2033663570059958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2844435197006938</v>
+        <v>0.2877298160290039</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -982,19 +982,19 @@
         <v>77766</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62828</v>
+        <v>62639</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93987</v>
+        <v>94735</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.278772551920128</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2252233503818428</v>
+        <v>0.2245448827731619</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3369218231177673</v>
+        <v>0.3396022799916935</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>172</v>
@@ -1003,19 +1003,19 @@
         <v>184711</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>161814</v>
+        <v>161594</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210196</v>
+        <v>209266</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2561909264895647</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2244332004910411</v>
+        <v>0.2241283945179249</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2915381614366286</v>
+        <v>0.2902485613564252</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>335085</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>316297</v>
+        <v>314844</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352063</v>
+        <v>352135</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7580600540687918</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7155564802993062</v>
+        <v>0.7122701839709962</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7964697739491697</v>
+        <v>0.7966336429940045</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>193</v>
@@ -1053,19 +1053,19 @@
         <v>201193</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>184972</v>
+        <v>184224</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>216131</v>
+        <v>216320</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7212274480798719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6630781768822327</v>
+        <v>0.6603977200083065</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7747766496181572</v>
+        <v>0.7754551172268381</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>520</v>
@@ -1074,19 +1074,19 @@
         <v>536277</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>510792</v>
+        <v>511722</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>559174</v>
+        <v>559394</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7438090735104353</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7084618385633712</v>
+        <v>0.7097514386435745</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7755667995089587</v>
+        <v>0.775871605482075</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>16077</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9467</v>
+        <v>9326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25257</v>
+        <v>24721</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1163337202507103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0685023613143171</v>
+        <v>0.06748565510390728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1827546337243254</v>
+        <v>0.178878577845788</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1199,19 +1199,19 @@
         <v>15767</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9629</v>
+        <v>9596</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24864</v>
+        <v>25511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1245042730685662</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07603032001837309</v>
+        <v>0.07577202252247085</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1963306414263846</v>
+        <v>0.2014413474341465</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1220,19 +1220,19 @@
         <v>31845</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22765</v>
+        <v>22305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44217</v>
+        <v>43009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1202407278819846</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08595634841225992</v>
+        <v>0.08421888304129642</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1669575363533763</v>
+        <v>0.1623952154182036</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>122122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112942</v>
+        <v>113478</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>128732</v>
+        <v>128873</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8836662797492897</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8172453662756739</v>
+        <v>0.821121422154212</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9314976386856827</v>
+        <v>0.9325143448960926</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>102</v>
@@ -1270,19 +1270,19 @@
         <v>110875</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101778</v>
+        <v>101131</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117013</v>
+        <v>117046</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8754957269314338</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8036693585736153</v>
+        <v>0.7985586525658522</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9239696799816268</v>
+        <v>0.9242279774775289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>216</v>
@@ -1291,19 +1291,19 @@
         <v>232996</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>220624</v>
+        <v>221832</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>242076</v>
+        <v>242536</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8797592721180153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8330424636466236</v>
+        <v>0.8376047845817964</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.91404365158774</v>
+        <v>0.9157811169587037</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>16848</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9793</v>
+        <v>9901</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26465</v>
+        <v>26424</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1875210324915913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1090045741534719</v>
+        <v>0.1102057502998692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2945629781851011</v>
+        <v>0.2941150824386234</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6762</v>
+        <v>7068</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01925509233499378</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06568450150902384</v>
+        <v>0.06866066878949571</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1437,19 +1437,19 @@
         <v>18830</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11659</v>
+        <v>11389</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29811</v>
+        <v>30192</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09767138951631746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06047469519658229</v>
+        <v>0.05907521308438997</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.154633889569534</v>
+        <v>0.1566059294155485</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>72996</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63379</v>
+        <v>63420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80051</v>
+        <v>79943</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8124789675084088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7054370218148992</v>
+        <v>0.7058849175613769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8909954258465281</v>
+        <v>0.8897942497001309</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>97</v>
@@ -1487,7 +1487,7 @@
         <v>100961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>96181</v>
+        <v>95875</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>102943</v>
@@ -1496,7 +1496,7 @@
         <v>0.9807449076650062</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9343154984909775</v>
+        <v>0.9313393312105044</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>173957</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>162976</v>
+        <v>162595</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181128</v>
+        <v>181398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9023286104836825</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8453661104304659</v>
+        <v>0.8433940705844515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9395253048034177</v>
+        <v>0.94092478691561</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>7076</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3401</v>
+        <v>2831</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13178</v>
+        <v>14042</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1343472688338134</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06457807684737461</v>
+        <v>0.05375308359705032</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2501959640606969</v>
+        <v>0.2666043257522702</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1633,19 +1633,19 @@
         <v>2940</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7914</v>
+        <v>7938</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0322076557711125</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01037592550772095</v>
+        <v>0.01040051579601713</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08670809563152036</v>
+        <v>0.08697211063131531</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1654,19 +1654,19 @@
         <v>10016</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5381</v>
+        <v>5152</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18423</v>
+        <v>17218</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06958250812297635</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03738633946554391</v>
+        <v>0.03579306772289868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1279887554753339</v>
+        <v>0.1196185608231342</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>45595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39493</v>
+        <v>38629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49270</v>
+        <v>49840</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8656527311661866</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7498040359393031</v>
+        <v>0.7333956742477301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9354219231526254</v>
+        <v>0.9462469164029498</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>87</v>
@@ -1704,19 +1704,19 @@
         <v>88331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83357</v>
+        <v>83333</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90324</v>
+        <v>90322</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9677923442288875</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9132919043684796</v>
+        <v>0.9130278893686846</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9896240744922791</v>
+        <v>0.9895994842039829</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>132</v>
@@ -1725,19 +1725,19 @@
         <v>133926</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>125519</v>
+        <v>126724</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>138561</v>
+        <v>138790</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9304174918770236</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8720112445246667</v>
+        <v>0.8803814391768665</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9626136605344563</v>
+        <v>0.9642069322771019</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3886</v>
+        <v>4327</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0224529421557619</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1040757528493951</v>
+        <v>0.1158677856102576</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5464</v>
+        <v>4251</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004978881367055859</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03244583347391612</v>
+        <v>0.02524678422702862</v>
       </c>
     </row>
     <row r="20">
@@ -1892,7 +1892,7 @@
         <v>36503</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33455</v>
+        <v>33014</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>37341</v>
@@ -1901,7 +1901,7 @@
         <v>0.9775470578442381</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8959242471506065</v>
+        <v>0.8841322143897423</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>167554</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>162928</v>
+        <v>164141</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>168392</v>
@@ -1935,7 +1935,7 @@
         <v>0.9950211186329442</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9675541665260842</v>
+        <v>0.9747532157729714</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5780</v>
+        <v>5698</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02789589497913294</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08792841398274447</v>
+        <v>0.08668275333920351</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5646</v>
+        <v>6382</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006460001630591599</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01989015328983958</v>
+        <v>0.0224814115658979</v>
       </c>
     </row>
     <row r="23">
@@ -2093,7 +2093,7 @@
         <v>63905</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>59959</v>
+        <v>60041</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>65739</v>
@@ -2102,7 +2102,7 @@
         <v>0.9721041050208671</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9120715860172556</v>
+        <v>0.9133172466607965</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>282043</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>278231</v>
+        <v>277495</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>283877</v>
@@ -2136,7 +2136,7 @@
         <v>0.9935399983694084</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9801098467101604</v>
+        <v>0.9775185884341021</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2231,19 +2231,19 @@
         <v>176279</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>153836</v>
+        <v>153673</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>203060</v>
+        <v>205331</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.136836108197536</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1194146847497842</v>
+        <v>0.1192883250571037</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1576245902527514</v>
+        <v>0.1593876512377565</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>133</v>
@@ -2252,19 +2252,19 @@
         <v>141378</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>118695</v>
+        <v>120623</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>165144</v>
+        <v>168712</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1022797520026375</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08587015906277999</v>
+        <v>0.0872650148974607</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1194734612322002</v>
+        <v>0.122054940217543</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>300</v>
@@ -2273,19 +2273,19 @@
         <v>317657</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>285580</v>
+        <v>283262</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>351090</v>
+        <v>354979</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1189496795805522</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1069383259986586</v>
+        <v>0.1060700874764048</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.131469001982865</v>
+        <v>0.1329254811615362</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>1111973</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1085192</v>
+        <v>1082921</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1134416</v>
+        <v>1134579</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.863163891802464</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8423754097472487</v>
+        <v>0.8406123487622434</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8805853152502159</v>
+        <v>0.8807116749428961</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1222</v>
@@ -2323,19 +2323,19 @@
         <v>1240885</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1217119</v>
+        <v>1213551</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1263568</v>
+        <v>1261640</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8977202479973625</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8805265387677996</v>
+        <v>0.877945059782457</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9141298409372198</v>
+        <v>0.9127349851025394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2319</v>
@@ -2344,19 +2344,19 @@
         <v>2352858</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2319425</v>
+        <v>2315536</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2384935</v>
+        <v>2387253</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8810503204194479</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.868530998017135</v>
+        <v>0.8670745188384634</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8930616740013414</v>
+        <v>0.8939299125235949</v>
       </c>
     </row>
     <row r="27">
@@ -2691,19 +2691,19 @@
         <v>33734</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23644</v>
+        <v>23669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45440</v>
+        <v>46418</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07893890833752894</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05532812100301226</v>
+        <v>0.05538642457949602</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1063319399478396</v>
+        <v>0.1086204430038283</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -2712,19 +2712,19 @@
         <v>43409</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31251</v>
+        <v>31926</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58052</v>
+        <v>57220</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1131852707049358</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08148467244997631</v>
+        <v>0.08324348117876888</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1513632575758788</v>
+        <v>0.1491939878098516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -2733,19 +2733,19 @@
         <v>77143</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63067</v>
+        <v>62326</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95012</v>
+        <v>96583</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09513685578427772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07777792029077182</v>
+        <v>0.07686345388176526</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1171734446088489</v>
+        <v>0.1191108173130001</v>
       </c>
     </row>
     <row r="5">
@@ -2762,19 +2762,19 @@
         <v>393605</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>381899</v>
+        <v>380921</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>403695</v>
+        <v>403670</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9210610916624711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8936680600521604</v>
+        <v>0.8913795569961718</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9446718789969877</v>
+        <v>0.9446135754205039</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>333</v>
@@ -2783,19 +2783,19 @@
         <v>340116</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325473</v>
+        <v>326305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>352274</v>
+        <v>351599</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8868147292950642</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.84863674242412</v>
+        <v>0.850806012190149</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9185153275500237</v>
+        <v>0.9167565188212312</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>718</v>
@@ -2804,19 +2804,19 @@
         <v>733721</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>715852</v>
+        <v>714281</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>747797</v>
+        <v>748538</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9048631442157223</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8828265553911513</v>
+        <v>0.8808891826869999</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9222220797092281</v>
+        <v>0.9231365461182348</v>
       </c>
     </row>
     <row r="6">
@@ -2908,19 +2908,19 @@
         <v>104752</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85931</v>
+        <v>87521</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123372</v>
+        <v>124475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.229298617186366</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1881006053774678</v>
+        <v>0.1915814446078545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2700575605822946</v>
+        <v>0.2724735376780812</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -2929,19 +2929,19 @@
         <v>85619</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69369</v>
+        <v>70032</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102342</v>
+        <v>102308</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3063473662346174</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2482032846119104</v>
+        <v>0.2505775949103463</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.366182920108578</v>
+        <v>0.3660602650262545</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -2950,19 +2950,19 @@
         <v>190371</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>167396</v>
+        <v>167026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>216517</v>
+        <v>213415</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2585439551758415</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2273418724260259</v>
+        <v>0.2268390123125799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2940529852958613</v>
+        <v>0.289840759470783</v>
       </c>
     </row>
     <row r="8">
@@ -2979,19 +2979,19 @@
         <v>352083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>333463</v>
+        <v>332360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>370904</v>
+        <v>369314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.770701382813634</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7299424394177053</v>
+        <v>0.7275264623219186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8118993946225322</v>
+        <v>0.8084185553921455</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>182</v>
@@ -3000,19 +3000,19 @@
         <v>193865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>177142</v>
+        <v>177176</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>210115</v>
+        <v>209452</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6936526337653827</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6338170798914218</v>
+        <v>0.6339397349737456</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7517967153880895</v>
+        <v>0.7494224050896537</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>525</v>
@@ -3021,19 +3021,19 @@
         <v>545948</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>519802</v>
+        <v>522904</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>568923</v>
+        <v>569293</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7414560448241585</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7059470147041388</v>
+        <v>0.710159240529217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.772658127573974</v>
+        <v>0.7731609876874196</v>
       </c>
     </row>
     <row r="9">
@@ -3125,19 +3125,19 @@
         <v>37069</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25943</v>
+        <v>25536</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49439</v>
+        <v>49097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2257682944580536</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1580046369829171</v>
+        <v>0.1555262446628519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.301108334694266</v>
+        <v>0.2990246926566715</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -3146,19 +3146,19 @@
         <v>45060</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32615</v>
+        <v>34366</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58457</v>
+        <v>57575</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3164890189761776</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2290766224578456</v>
+        <v>0.2413761809428279</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4105831287171596</v>
+        <v>0.4043850890441332</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -3167,19 +3167,19 @@
         <v>82129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65595</v>
+        <v>64878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101343</v>
+        <v>99636</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2679009609985851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2139680401506063</v>
+        <v>0.2116292416096411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3305750614370443</v>
+        <v>0.3250087753193457</v>
       </c>
     </row>
     <row r="11">
@@ -3196,19 +3196,19 @@
         <v>127121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>114751</v>
+        <v>115093</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138247</v>
+        <v>138654</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7742317055419464</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6988916653057342</v>
+        <v>0.7009753073433286</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8419953630170828</v>
+        <v>0.8444737553371482</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -3217,19 +3217,19 @@
         <v>97316</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83919</v>
+        <v>84801</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>109761</v>
+        <v>108010</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6835109810238224</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5894168712828405</v>
+        <v>0.5956149109558667</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7709233775421543</v>
+        <v>0.758623819057172</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>212</v>
@@ -3238,19 +3238,19 @@
         <v>224436</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>205222</v>
+        <v>206929</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>240970</v>
+        <v>241687</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7320990390014148</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6694249385629557</v>
+        <v>0.6749912246806543</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7860319598493936</v>
+        <v>0.7883707583903588</v>
       </c>
     </row>
     <row r="12">
@@ -3342,19 +3342,19 @@
         <v>25722</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16643</v>
+        <v>17364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38300</v>
+        <v>38939</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1840277669973661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1190689888967023</v>
+        <v>0.1242329769582927</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2740158487665924</v>
+        <v>0.2785886748534029</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -3363,19 +3363,19 @@
         <v>11279</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5368</v>
+        <v>5058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20278</v>
+        <v>20116</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08567423818572609</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0407742293139012</v>
+        <v>0.0384226528483722</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1540374221697313</v>
+        <v>0.1528040046089668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -3384,19 +3384,19 @@
         <v>37001</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24018</v>
+        <v>25450</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50373</v>
+        <v>52244</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1363234772526324</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08848949891561998</v>
+        <v>0.09376772630939864</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1855926359211603</v>
+        <v>0.1924858828004441</v>
       </c>
     </row>
     <row r="14">
@@ -3413,19 +3413,19 @@
         <v>114051</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101473</v>
+        <v>100834</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123130</v>
+        <v>122409</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8159722330026339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7259841512334074</v>
+        <v>0.721411325146597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8809310111032975</v>
+        <v>0.8757670230417073</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -3434,19 +3434,19 @@
         <v>120367</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111368</v>
+        <v>111530</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126278</v>
+        <v>126588</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9143257618142739</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8459625778302687</v>
+        <v>0.847195995391033</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9592257706860988</v>
+        <v>0.9615773471516278</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>206</v>
@@ -3455,19 +3455,19 @@
         <v>234417</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>221045</v>
+        <v>219174</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>247400</v>
+        <v>245968</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8636765227473675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8144073640788396</v>
+        <v>0.8075141171995559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9115105010843798</v>
+        <v>0.9062322736906014</v>
       </c>
     </row>
     <row r="15">
@@ -3559,19 +3559,19 @@
         <v>7332</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3096</v>
+        <v>3046</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14883</v>
+        <v>15172</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1192464267104013</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05035169752438696</v>
+        <v>0.04954636893948141</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2420529581497809</v>
+        <v>0.2467508223529606</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3580,19 +3580,19 @@
         <v>11527</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5670</v>
+        <v>5649</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20303</v>
+        <v>20128</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1127323688645373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05545185690130389</v>
+        <v>0.05524451027151173</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1985637474866009</v>
+        <v>0.1968500604017544</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -3601,19 +3601,19 @@
         <v>18859</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11281</v>
+        <v>11582</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28893</v>
+        <v>29093</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1151785358826539</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06890085765325925</v>
+        <v>0.07073604124851264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1764635739680423</v>
+        <v>0.1776837358907025</v>
       </c>
     </row>
     <row r="17">
@@ -3630,19 +3630,19 @@
         <v>54154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46603</v>
+        <v>46314</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58390</v>
+        <v>58440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8807535732895987</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7579470418502191</v>
+        <v>0.7532491776470395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.949648302475613</v>
+        <v>0.9504536310605185</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -3651,19 +3651,19 @@
         <v>90722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81946</v>
+        <v>82121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96579</v>
+        <v>96600</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8872676311354627</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8014362525133992</v>
+        <v>0.8031499395982452</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9445481430986962</v>
+        <v>0.9447554897284882</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>132</v>
@@ -3672,19 +3672,19 @@
         <v>144875</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>134841</v>
+        <v>134641</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152453</v>
+        <v>152152</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8848214641173461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8235364260319578</v>
+        <v>0.8223162641092983</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.931099142346741</v>
+        <v>0.9292639587514877</v>
       </c>
     </row>
     <row r="18">
@@ -3776,19 +3776,19 @@
         <v>2974</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>900</v>
+        <v>925</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7419</v>
+        <v>7741</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05243440653203479</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01586660296464766</v>
+        <v>0.01631488012991494</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1308091356078742</v>
+        <v>0.136478654298206</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3797,19 +3797,19 @@
         <v>3748</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10326</v>
+        <v>11508</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02580789258218012</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006621246929420189</v>
+        <v>0.006683503728207722</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07109883912145301</v>
+        <v>0.07924345467337916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3818,19 +3818,19 @@
         <v>6722</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2768</v>
+        <v>2017</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14115</v>
+        <v>14766</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0332860766777406</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01370788388885044</v>
+        <v>0.009990100541499396</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06989559775898055</v>
+        <v>0.07311885486740012</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>53743</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49298</v>
+        <v>48976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55817</v>
+        <v>55792</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9475655934679652</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8691908643921251</v>
+        <v>0.8635213457017946</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9841333970353523</v>
+        <v>0.9836851198700851</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>139</v>
@@ -3868,19 +3868,19 @@
         <v>141480</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134902</v>
+        <v>133720</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>144266</v>
+        <v>144257</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9741921074178199</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9289011608785471</v>
+        <v>0.920756545326621</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9933787530705799</v>
+        <v>0.9933164962717923</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>186</v>
@@ -3889,19 +3889,19 @@
         <v>195223</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>187830</v>
+        <v>187179</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>199177</v>
+        <v>199928</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9667139233222594</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9301044022410194</v>
+        <v>0.9268811451326</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9862921161111495</v>
+        <v>0.9900098994585035</v>
       </c>
     </row>
     <row r="21">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7237</v>
+        <v>8073</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008764980526745443</v>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03024442996734877</v>
+        <v>0.03374065302715035</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8441</v>
+        <v>6390</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006631048740715973</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02668861440426522</v>
+        <v>0.02020478714747238</v>
       </c>
     </row>
     <row r="23">
@@ -4069,7 +4069,7 @@
         <v>237180</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>232040</v>
+        <v>231204</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>239277</v>
@@ -4078,7 +4078,7 @@
         <v>0.9912350194732545</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9697555700326512</v>
+        <v>0.9662593469728504</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>314181</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>307837</v>
+        <v>309888</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>316278</v>
@@ -4099,7 +4099,7 @@
         <v>0.993368951259284</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9733113855957348</v>
+        <v>0.9797952128525278</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -4194,19 +4194,19 @@
         <v>211582</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>185397</v>
+        <v>186567</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>241078</v>
+        <v>242911</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.152950083924151</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1340211504308723</v>
+        <v>0.1348668559932951</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1742724592027449</v>
+        <v>0.1755975000669664</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>183</v>
@@ -4215,19 +4215,19 @@
         <v>202740</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>175717</v>
+        <v>175782</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>230095</v>
+        <v>232381</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1423949525081311</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1234153508396352</v>
+        <v>0.1234615688353393</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1616082821397263</v>
+        <v>0.1632137723156067</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>375</v>
@@ -4236,19 +4236,19 @@
         <v>414321</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>376771</v>
+        <v>374176</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>452600</v>
+        <v>454726</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1475964837970203</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1342196862495614</v>
+        <v>0.133295024894924</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1612325150463496</v>
+        <v>0.1619901552269761</v>
       </c>
     </row>
     <row r="26">
@@ -4265,19 +4265,19 @@
         <v>1171758</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1142262</v>
+        <v>1140429</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1197943</v>
+        <v>1196773</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.847049916075849</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8257275407972551</v>
+        <v>0.8244024999330334</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8659788495691275</v>
+        <v>0.8651331440067047</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1145</v>
@@ -4286,19 +4286,19 @@
         <v>1221043</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1193688</v>
+        <v>1191402</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1248066</v>
+        <v>1248001</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8576050474918689</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.838391717860274</v>
+        <v>0.8367862276843935</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8765846491603648</v>
+        <v>0.8765384311646608</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2261</v>
@@ -4307,19 +4307,19 @@
         <v>2392802</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2354523</v>
+        <v>2352397</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2430352</v>
+        <v>2432947</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8524035162029797</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8387674849536505</v>
+        <v>0.838009844773024</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8657803137504386</v>
+        <v>0.8667049751050762</v>
       </c>
     </row>
     <row r="27">
@@ -4654,19 +4654,19 @@
         <v>25825</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16702</v>
+        <v>17384</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36699</v>
+        <v>38103</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0652225039172572</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04218296578590913</v>
+        <v>0.04390438914637236</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09268730895687353</v>
+        <v>0.09623372720348543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -4675,19 +4675,19 @@
         <v>48940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36761</v>
+        <v>37505</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62570</v>
+        <v>62328</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1368074800330587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1027607046858015</v>
+        <v>0.104840707580278</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.174906329887893</v>
+        <v>0.1742304087713073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -4696,19 +4696,19 @@
         <v>74765</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59087</v>
+        <v>60453</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91074</v>
+        <v>92402</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0992001481775585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07839834113196861</v>
+        <v>0.08021084435050095</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1208389752287773</v>
+        <v>0.1226008548037473</v>
       </c>
     </row>
     <row r="5">
@@ -4725,19 +4725,19 @@
         <v>370122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>359248</v>
+        <v>357844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>379245</v>
+        <v>378563</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9347774960827429</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9073126910431263</v>
+        <v>0.9037662727965139</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9578170342140905</v>
+        <v>0.9560956108536276</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>316</v>
@@ -4746,19 +4746,19 @@
         <v>308792</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295162</v>
+        <v>295404</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>320971</v>
+        <v>320227</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8631925199669414</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8250936701121067</v>
+        <v>0.8257695912286918</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8972392953141985</v>
+        <v>0.895159292419722</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>663</v>
@@ -4767,19 +4767,19 @@
         <v>678914</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>662605</v>
+        <v>661277</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>694592</v>
+        <v>693226</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9007998518224415</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8791610247712227</v>
+        <v>0.8773991451962526</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9216016588680314</v>
+        <v>0.919789155649499</v>
       </c>
     </row>
     <row r="6">
@@ -4871,19 +4871,19 @@
         <v>126243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108824</v>
+        <v>108299</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146125</v>
+        <v>145458</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3270088307813701</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2818867823654673</v>
+        <v>0.2805280824002677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3785080017032521</v>
+        <v>0.3767816539947633</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -4892,19 +4892,19 @@
         <v>98180</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>83092</v>
+        <v>82125</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117009</v>
+        <v>113987</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3090661147645568</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2615694363442654</v>
+        <v>0.2585240946253372</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3683379878427978</v>
+        <v>0.3588269455777782</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>219</v>
@@ -4913,19 +4913,19 @@
         <v>224424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>199139</v>
+        <v>198808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>248371</v>
+        <v>249712</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3189093097555959</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2829797944961518</v>
+        <v>0.2825090692176737</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.352939079208365</v>
+        <v>0.3548440207615898</v>
       </c>
     </row>
     <row r="8">
@@ -4942,19 +4942,19 @@
         <v>259812</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>239930</v>
+        <v>240597</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>277231</v>
+        <v>277756</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6729911692186299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6214919982967482</v>
+        <v>0.6232183460052364</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.718113217634533</v>
+        <v>0.7194719175997322</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>226</v>
@@ -4963,19 +4963,19 @@
         <v>219487</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>200658</v>
+        <v>203680</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>234575</v>
+        <v>235542</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6909338852354433</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6316620121572022</v>
+        <v>0.6411730544222217</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7384305636557347</v>
+        <v>0.7414759053746629</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>479</v>
@@ -4984,19 +4984,19 @@
         <v>479299</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>455352</v>
+        <v>454011</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>504584</v>
+        <v>504915</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6810906902444042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.647060920791635</v>
+        <v>0.6451559792384104</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7170202055038482</v>
+        <v>0.7174909307823264</v>
       </c>
     </row>
     <row r="9">
@@ -5088,19 +5088,19 @@
         <v>54995</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42069</v>
+        <v>43343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68989</v>
+        <v>70018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.248375174660315</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1899976209896924</v>
+        <v>0.1957515800952489</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3115748223898797</v>
+        <v>0.3162228252492928</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -5109,19 +5109,19 @@
         <v>48630</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37202</v>
+        <v>36940</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61694</v>
+        <v>60198</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.26571107692545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2032647820100832</v>
+        <v>0.2018353524910573</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3370891839379094</v>
+        <v>0.328914967222627</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -5130,19 +5130,19 @@
         <v>103625</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86195</v>
+        <v>87346</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122961</v>
+        <v>122583</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2562201377505773</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2131211699064492</v>
+        <v>0.2159675354450127</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3040286795017448</v>
+        <v>0.3030927899376276</v>
       </c>
     </row>
     <row r="11">
@@ -5159,19 +5159,19 @@
         <v>166425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>152431</v>
+        <v>151402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>179351</v>
+        <v>178077</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.751624825339685</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6884251776101205</v>
+        <v>0.6837771747507072</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8100023790103076</v>
+        <v>0.8042484199047509</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>139</v>
@@ -5180,19 +5180,19 @@
         <v>134390</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121326</v>
+        <v>122822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145818</v>
+        <v>146080</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.73428892307455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6629108160620905</v>
+        <v>0.671085032777373</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7967352179899165</v>
+        <v>0.7981646475089426</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>300</v>
@@ -5201,19 +5201,19 @@
         <v>300814</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>281478</v>
+        <v>281856</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>318244</v>
+        <v>317093</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7437798622494227</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6959713204982551</v>
+        <v>0.6969072100623723</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7868788300935508</v>
+        <v>0.7840324645549872</v>
       </c>
     </row>
     <row r="12">
@@ -5305,19 +5305,19 @@
         <v>23570</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15205</v>
+        <v>15963</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34811</v>
+        <v>34037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1275061982477169</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08225551659187233</v>
+        <v>0.08635688628293377</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1883148915659525</v>
+        <v>0.1841295573135648</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5326,19 +5326,19 @@
         <v>17752</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10558</v>
+        <v>10152</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28652</v>
+        <v>28044</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1021007080698646</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06072313310216607</v>
+        <v>0.05838586170993574</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1647903493446815</v>
+        <v>0.1612907330331977</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -5347,19 +5347,19 @@
         <v>41322</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29941</v>
+        <v>30567</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56120</v>
+        <v>55061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1151923500400389</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08346631929663481</v>
+        <v>0.08521172884939907</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1564427020659544</v>
+        <v>0.1534919374099613</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>161283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>150042</v>
+        <v>150816</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>169648</v>
+        <v>168890</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8724938017522831</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8116851084340474</v>
+        <v>0.8158704426864348</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9177444834081276</v>
+        <v>0.9136431137170661</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>142</v>
@@ -5397,19 +5397,19 @@
         <v>156119</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>145219</v>
+        <v>145827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>163313</v>
+        <v>163719</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8978992919301354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8352096506553189</v>
+        <v>0.8387092669668023</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9392768668978342</v>
+        <v>0.9416141382900642</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>288</v>
@@ -5418,19 +5418,19 @@
         <v>317402</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>302604</v>
+        <v>303663</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>328783</v>
+        <v>328157</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8848076499599611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8435572979340457</v>
+        <v>0.8465080625900385</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9165336807033651</v>
+        <v>0.9147882711506009</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>17607</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10406</v>
+        <v>10107</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27715</v>
+        <v>26710</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1645111509111066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09722761432874466</v>
+        <v>0.09443682168893051</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2589597041677865</v>
+        <v>0.2495700793638518</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -5543,19 +5543,19 @@
         <v>8593</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3397</v>
+        <v>3537</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16582</v>
+        <v>16850</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05021163941683664</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01984753060788088</v>
+        <v>0.02066512183167603</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09689751248732714</v>
+        <v>0.09846338247115596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -5564,19 +5564,19 @@
         <v>26200</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17173</v>
+        <v>17448</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38760</v>
+        <v>39557</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09418975752070109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06173886241959118</v>
+        <v>0.06272738599371737</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.139343294082172</v>
+        <v>0.1422088736962693</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>89418</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>79310</v>
+        <v>80315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>96619</v>
+        <v>96918</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8354888490888934</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7410402958322134</v>
+        <v>0.7504299206361488</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9027723856712553</v>
+        <v>0.9055631783110696</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>140</v>
@@ -5614,19 +5614,19 @@
         <v>162541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154552</v>
+        <v>154284</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>167737</v>
+        <v>167597</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9497883605831634</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9031024875126729</v>
+        <v>0.901536617528844</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9801524693921191</v>
+        <v>0.979334878168324</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>219</v>
@@ -5635,19 +5635,19 @@
         <v>251959</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>239399</v>
+        <v>238602</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>260986</v>
+        <v>260711</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9058102424792989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8606567059178281</v>
+        <v>0.8577911263037307</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.938261137580409</v>
+        <v>0.9372726140062827</v>
       </c>
     </row>
     <row r="18">
@@ -5739,19 +5739,19 @@
         <v>4863</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1838</v>
+        <v>1912</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10625</v>
+        <v>10151</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06355915317179484</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02401810553830988</v>
+        <v>0.0249857865256378</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1388633340387014</v>
+        <v>0.1326636122520452</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5773,19 +5773,19 @@
         <v>4863</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1874</v>
+        <v>1903</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10638</v>
+        <v>11669</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02192004520045291</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008445940447409516</v>
+        <v>0.008578962689469624</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04794902323977344</v>
+        <v>0.05259574783940887</v>
       </c>
     </row>
     <row r="20">
@@ -5802,19 +5802,19 @@
         <v>71653</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65891</v>
+        <v>66365</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>74678</v>
+        <v>74604</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9364408468282052</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8611366659612963</v>
+        <v>0.8673363877479546</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9759818944616901</v>
+        <v>0.9750142134743622</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>137</v>
@@ -5836,19 +5836,19 @@
         <v>217001</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>211226</v>
+        <v>210195</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>219990</v>
+        <v>219961</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9780799547995471</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9520509767602262</v>
+        <v>0.9474042521605907</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9915540595525905</v>
+        <v>0.9914210373105303</v>
       </c>
     </row>
     <row r="21">
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8010</v>
+        <v>6866</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02396559674212303</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08887813749780528</v>
+        <v>0.07617908639434638</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8894</v>
+        <v>10680</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008599552273961504</v>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03640050131361521</v>
+        <v>0.04370716276367918</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -5982,19 +5982,19 @@
         <v>4261</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12495</v>
+        <v>12776</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01274010640431721</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002485223221574051</v>
+        <v>0.002471458609895341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03735867663656245</v>
+        <v>0.03819910770066549</v>
       </c>
     </row>
     <row r="23">
@@ -6011,7 +6011,7 @@
         <v>87967</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>82117</v>
+        <v>83261</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>90127</v>
@@ -6020,7 +6020,7 @@
         <v>0.9760344032578769</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9111218625021935</v>
+        <v>0.9238209136056541</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -6032,7 +6032,7 @@
         <v>242242</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>235449</v>
+        <v>233663</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>244343</v>
@@ -6041,7 +6041,7 @@
         <v>0.9914004477260385</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9635994986863835</v>
+        <v>0.9562928372363229</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -6053,19 +6053,19 @@
         <v>330209</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>321975</v>
+        <v>321694</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>333639</v>
+        <v>333643</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9872598935956828</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.962641323363438</v>
+        <v>0.961800892299336</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9975147767784259</v>
+        <v>0.9975285413901047</v>
       </c>
     </row>
     <row r="24">
@@ -6157,19 +6157,19 @@
         <v>255263</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>225082</v>
+        <v>227557</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>286459</v>
+        <v>288915</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1746055103624143</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1539609280528983</v>
+        <v>0.1556537174161889</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1959440889974912</v>
+        <v>0.1976241441750715</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>220</v>
@@ -6178,19 +6178,19 @@
         <v>224197</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>199663</v>
+        <v>197027</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>252453</v>
+        <v>252608</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.140728973158881</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1253288917674998</v>
+        <v>0.1236741914364244</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.158465056543249</v>
+        <v>0.15856219000454</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>454</v>
@@ -6199,19 +6199,19 @@
         <v>479461</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>440118</v>
+        <v>440080</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>523910</v>
+        <v>525094</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.156939974447389</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1440621099657039</v>
+        <v>0.1440496062482402</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1714893317782281</v>
+        <v>0.171877021074582</v>
       </c>
     </row>
     <row r="26">
@@ -6228,19 +6228,19 @@
         <v>1206679</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1175483</v>
+        <v>1173027</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1236860</v>
+        <v>1234385</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8253944896375857</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8040559110025088</v>
+        <v>0.8023758558249288</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8460390719471018</v>
+        <v>0.8443462825838112</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1282</v>
@@ -6249,19 +6249,19 @@
         <v>1368918</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1340662</v>
+        <v>1340507</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1393452</v>
+        <v>1396088</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.859271026841119</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8415349434567505</v>
+        <v>0.8414378099954604</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8746711082325002</v>
+        <v>0.8763258085635757</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2438</v>
@@ -6270,19 +6270,19 @@
         <v>2575597</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2531148</v>
+        <v>2529964</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2614940</v>
+        <v>2614978</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8430600255526111</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8285106682217719</v>
+        <v>0.828122978925418</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8559378900342961</v>
+        <v>0.8559503937517597</v>
       </c>
     </row>
     <row r="27">
@@ -6617,19 +6617,19 @@
         <v>22204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10094</v>
+        <v>10849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43339</v>
+        <v>42058</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05461603544842782</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02482850647773334</v>
+        <v>0.02668532709049226</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1066047671836874</v>
+        <v>0.1034532575374662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -6638,19 +6638,19 @@
         <v>25852</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15256</v>
+        <v>14917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41169</v>
+        <v>43185</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07415401965496535</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04375963549875476</v>
+        <v>0.04278890213897242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1180899961998584</v>
+        <v>0.1238724894319835</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -6659,19 +6659,19 @@
         <v>48055</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30333</v>
+        <v>32297</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70375</v>
+        <v>71220</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06363581139431602</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04016743075920714</v>
+        <v>0.0427681755909006</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09319121959602973</v>
+        <v>0.09431107814087376</v>
       </c>
     </row>
     <row r="5">
@@ -6688,19 +6688,19 @@
         <v>384336</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>363201</v>
+        <v>364482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>396446</v>
+        <v>395691</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9453839645515723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8933952328163121</v>
+        <v>0.8965467424625342</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9751714935222665</v>
+        <v>0.9733146729095078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -6709,19 +6709,19 @@
         <v>322772</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307455</v>
+        <v>305439</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333368</v>
+        <v>333707</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9258459803450346</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8819100038001415</v>
+        <v>0.8761275105680173</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9562403645012452</v>
+        <v>0.9572110978610276</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>344</v>
@@ -6730,19 +6730,19 @@
         <v>707109</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>684789</v>
+        <v>683944</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>724831</v>
+        <v>722867</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.936364188605684</v>
+        <v>0.9363641886056837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9068087804039701</v>
+        <v>0.9056889218591262</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9598325692407929</v>
+        <v>0.9572318244090994</v>
       </c>
     </row>
     <row r="6">
@@ -6834,19 +6834,19 @@
         <v>109697</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86013</v>
+        <v>87421</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133438</v>
+        <v>134934</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2888499749254432</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2264858798445672</v>
+        <v>0.2301958018581619</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3513659994220162</v>
+        <v>0.3553050717525316</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -6855,19 +6855,19 @@
         <v>96275</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79246</v>
+        <v>80326</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115900</v>
+        <v>115094</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3056426279727283</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.251580805759142</v>
+        <v>0.255009700332019</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3679452135980696</v>
+        <v>0.3653860047957871</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>147</v>
@@ -6876,19 +6876,19 @@
         <v>205971</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>175701</v>
+        <v>177361</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>235636</v>
+        <v>238498</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2964634452890704</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2528936586981997</v>
+        <v>0.255284030219069</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3391605523789782</v>
+        <v>0.3432808528570105</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>270073</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>246332</v>
+        <v>244836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>293757</v>
+        <v>292349</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7111500250745568</v>
+        <v>0.7111500250745569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6486340005779836</v>
+        <v>0.6446949282474684</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7735141201554327</v>
+        <v>0.769804198141838</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>191</v>
@@ -6926,19 +6926,19 @@
         <v>218717</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>199092</v>
+        <v>199898</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>235746</v>
+        <v>234666</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6943573720272717</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6320547864019305</v>
+        <v>0.6346139952042128</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.748419194240858</v>
+        <v>0.744990299667981</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>358</v>
@@ -6947,19 +6947,19 @@
         <v>488790</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>459125</v>
+        <v>456263</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>519060</v>
+        <v>517400</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7035365547109295</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.660839447621022</v>
+        <v>0.6567191471429895</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7471063413018004</v>
+        <v>0.7447159697809314</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>76133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61214</v>
+        <v>60253</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>93003</v>
+        <v>91951</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3028167385712544</v>
+        <v>0.3028167385712543</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2434784356683173</v>
+        <v>0.2396539693254104</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3699165379610519</v>
+        <v>0.3657356146807671</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -7072,19 +7072,19 @@
         <v>71321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60322</v>
+        <v>59748</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83491</v>
+        <v>82547</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3305703654567017</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2795911919284854</v>
+        <v>0.276929954875875</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3869782948249746</v>
+        <v>0.3826014887957978</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -7093,19 +7093,19 @@
         <v>147454</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126710</v>
+        <v>129154</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167977</v>
+        <v>169299</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3156341793233076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.271231013970786</v>
+        <v>0.2764617384233268</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.359566386020985</v>
+        <v>0.3623965420975053</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>175282</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>158412</v>
+        <v>159464</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>190201</v>
+        <v>191162</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6971832614287456</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6300834620389492</v>
+        <v>0.6342643853192331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7565215643316833</v>
+        <v>0.7603460306745897</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>194</v>
@@ -7143,19 +7143,19 @@
         <v>144430</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132260</v>
+        <v>133204</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>155429</v>
+        <v>156003</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6694296345432982</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6130217051750253</v>
+        <v>0.6173985112042022</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7204088080715145</v>
+        <v>0.7230700451241251</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>349</v>
@@ -7164,19 +7164,19 @@
         <v>319712</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>299189</v>
+        <v>297867</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>340456</v>
+        <v>338012</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6843658206766926</v>
+        <v>0.6843658206766924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.640433613979015</v>
+        <v>0.6376034579024947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.728768986029214</v>
+        <v>0.7235382615766733</v>
       </c>
     </row>
     <row r="12">
@@ -7268,19 +7268,19 @@
         <v>32455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23026</v>
+        <v>22140</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44303</v>
+        <v>43894</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1202739805258276</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08533225752662259</v>
+        <v>0.08204714489067677</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1641807808791122</v>
+        <v>0.1626636288420932</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -7289,19 +7289,19 @@
         <v>39166</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30803</v>
+        <v>30389</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48992</v>
+        <v>50316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1764111360365033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1387426965939873</v>
+        <v>0.1368761316103856</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2206697674914961</v>
+        <v>0.2266310964360949</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>90</v>
@@ -7310,19 +7310,19 @@
         <v>71621</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56778</v>
+        <v>57918</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85426</v>
+        <v>87555</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1456131693574518</v>
+        <v>0.1456131693574519</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1154358888828895</v>
+        <v>0.1177520184008197</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1736790225158891</v>
+        <v>0.1780069100524611</v>
       </c>
     </row>
     <row r="14">
@@ -7339,19 +7339,19 @@
         <v>237390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>225542</v>
+        <v>225951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>246819</v>
+        <v>247705</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8797260194741723</v>
+        <v>0.8797260194741724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8358192191208877</v>
+        <v>0.8373363711579067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9146677424733775</v>
+        <v>0.9179528551093232</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>282</v>
@@ -7360,19 +7360,19 @@
         <v>182850</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>173024</v>
+        <v>171700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>191213</v>
+        <v>191627</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8235888639634967</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.779330232508504</v>
+        <v>0.773368903563905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8612573034060127</v>
+        <v>0.8631238683896143</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>506</v>
@@ -7381,19 +7381,19 @@
         <v>420240</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>406435</v>
+        <v>404306</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>435083</v>
+        <v>433943</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8543868306425482</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8263209774841109</v>
+        <v>0.8219930899475389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8845641111171105</v>
+        <v>0.8822479815991804</v>
       </c>
     </row>
     <row r="15">
@@ -7485,19 +7485,19 @@
         <v>25988</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17399</v>
+        <v>16615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37183</v>
+        <v>37787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1246569715415961</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08345931788601627</v>
+        <v>0.07969954731387897</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1783575318260928</v>
+        <v>0.1812547774374359</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -7506,19 +7506,19 @@
         <v>17722</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12064</v>
+        <v>11674</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25222</v>
+        <v>25343</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07784340171112944</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05298865985238833</v>
+        <v>0.05127564937802121</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1107860195372131</v>
+        <v>0.1113203741517062</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -7527,19 +7527,19 @@
         <v>43710</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33152</v>
+        <v>32775</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56595</v>
+        <v>56500</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.100220356033</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07601410742011783</v>
+        <v>0.07514884243985412</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.129763636993421</v>
+        <v>0.1295477012151765</v>
       </c>
     </row>
     <row r="17">
@@ -7556,19 +7556,19 @@
         <v>182486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171291</v>
+        <v>170687</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191075</v>
+        <v>191859</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8753430284584038</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8216424681739073</v>
+        <v>0.8187452225625637</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9165406821139838</v>
+        <v>0.9203004526861205</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>342</v>
@@ -7577,19 +7577,19 @@
         <v>209940</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>202440</v>
+        <v>202319</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215598</v>
+        <v>215988</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9221565982888706</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8892139804627869</v>
+        <v>0.8886796258482934</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9470113401476117</v>
+        <v>0.9487243506219786</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>539</v>
@@ -7598,19 +7598,19 @@
         <v>392426</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>379541</v>
+        <v>379636</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>402984</v>
+        <v>403361</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8997796439670001</v>
+        <v>0.8997796439669999</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.870236363006579</v>
+        <v>0.8704522987848237</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9239858925798822</v>
+        <v>0.924851157560146</v>
       </c>
     </row>
     <row r="18">
@@ -7702,19 +7702,19 @@
         <v>11055</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6502</v>
+        <v>6364</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17587</v>
+        <v>17167</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.091121204190149</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05359783594605893</v>
+        <v>0.05245770910481447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1449642199064758</v>
+        <v>0.1415053348276349</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -7723,19 +7723,19 @@
         <v>4705</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2261</v>
+        <v>2216</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8949</v>
+        <v>8748</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02375901160498699</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01141392609098189</v>
+        <v>0.01118683859008295</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04518609925213597</v>
+        <v>0.04417074840564663</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -7744,19 +7744,19 @@
         <v>15760</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10335</v>
+        <v>10142</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23226</v>
+        <v>23073</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04934786777891075</v>
+        <v>0.04934786777891074</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03236157173035079</v>
+        <v>0.0317575840154056</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07272456561431087</v>
+        <v>0.072245052628494</v>
       </c>
     </row>
     <row r="20">
@@ -7773,19 +7773,19 @@
         <v>110263</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>103731</v>
+        <v>104151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>114816</v>
+        <v>114954</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.908878795809851</v>
+        <v>0.9088787958098509</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8550357800935247</v>
+        <v>0.8584946651723652</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9464021640539412</v>
+        <v>0.9475422908951854</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>360</v>
@@ -7794,19 +7794,19 @@
         <v>193344</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>189100</v>
+        <v>189301</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>195788</v>
+        <v>195833</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9762409883950131</v>
+        <v>0.9762409883950128</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9548139007478641</v>
+        <v>0.9558292515943534</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9885860739090181</v>
+        <v>0.9888131614099172</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>517</v>
@@ -7815,19 +7815,19 @@
         <v>303607</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>296141</v>
+        <v>296294</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>309032</v>
+        <v>309225</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9506521322210891</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9272754343856893</v>
+        <v>0.9277549473715058</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9676384282696494</v>
+        <v>0.9682424159845942</v>
       </c>
     </row>
     <row r="21">
@@ -7919,19 +7919,19 @@
         <v>7668</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3880</v>
+        <v>3945</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14074</v>
+        <v>13604</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06866421778831956</v>
+        <v>0.06866421778831955</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03474392873583312</v>
+        <v>0.03533260108238818</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1260329206312658</v>
+        <v>0.1218243193438317</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -7940,19 +7940,19 @@
         <v>2646</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>993</v>
+        <v>1029</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6155</v>
+        <v>6639</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007688226838151656</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00288410615805662</v>
+        <v>0.002989681429320062</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01788358243659317</v>
+        <v>0.01929189681023221</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -7961,19 +7961,19 @@
         <v>10313</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5691</v>
+        <v>6167</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17052</v>
+        <v>16705</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02262610768879226</v>
+        <v>0.02262610768879225</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01248532707350356</v>
+        <v>0.01352867508973724</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03740862264299356</v>
+        <v>0.0366492967154215</v>
       </c>
     </row>
     <row r="23">
@@ -7990,19 +7990,19 @@
         <v>103999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97593</v>
+        <v>98063</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>107787</v>
+        <v>107722</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9313357822116805</v>
+        <v>0.9313357822116806</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8739670793687339</v>
+        <v>0.8781756806561684</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9652560712641669</v>
+        <v>0.9646673989176119</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>647</v>
@@ -8011,19 +8011,19 @@
         <v>341507</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>337998</v>
+        <v>337514</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>343160</v>
+        <v>343124</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9923117731618484</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.982116417563406</v>
+        <v>0.980708103189767</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9971158938419433</v>
+        <v>0.9970103185706799</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>804</v>
@@ -8032,19 +8032,19 @@
         <v>445507</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>438768</v>
+        <v>439115</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>450129</v>
+        <v>449653</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9773738923112077</v>
+        <v>0.9773738923112076</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9625913773570063</v>
+        <v>0.9633507032845785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9875146729264965</v>
+        <v>0.9864713249102628</v>
       </c>
     </row>
     <row r="24">
@@ -8136,19 +8136,19 @@
         <v>285198</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>248112</v>
+        <v>250248</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>324846</v>
+        <v>325807</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1630608151273786</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1418574240684282</v>
+        <v>0.143078393107544</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1857296586692203</v>
+        <v>0.1862788582399737</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>293</v>
@@ -8157,19 +8157,19 @@
         <v>257687</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>227579</v>
+        <v>230137</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>288035</v>
+        <v>289501</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1377087440063847</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1216190966698882</v>
+        <v>0.1229857601210919</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.153926723652598</v>
+        <v>0.1547100820222892</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>509</v>
@@ -8178,19 +8178,19 @@
         <v>542885</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>499634</v>
+        <v>497276</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>599208</v>
+        <v>591771</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1499568387655092</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1380100807399491</v>
+        <v>0.1373586234160603</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.165514468450771</v>
+        <v>0.1634603102612082</v>
       </c>
     </row>
     <row r="26">
@@ -8207,19 +8207,19 @@
         <v>1463829</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1424181</v>
+        <v>1423220</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1500915</v>
+        <v>1498779</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8369391848726213</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8142703413307794</v>
+        <v>0.8137211417600261</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8581425759315717</v>
+        <v>0.8569216068924558</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2199</v>
@@ -8228,19 +8228,19 @@
         <v>1613560</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1583212</v>
+        <v>1581746</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1643668</v>
+        <v>1641110</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8622912559936152</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8460732763474028</v>
+        <v>0.8452899179777115</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.878380903330112</v>
+        <v>0.877014239878908</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3417</v>
@@ -8249,19 +8249,19 @@
         <v>3077389</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3021066</v>
+        <v>3028503</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3120640</v>
+        <v>3122998</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8500431612344908</v>
+        <v>0.8500431612344906</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.834485531549229</v>
+        <v>0.8365396897387918</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8619899192600512</v>
+        <v>0.8626413765839396</v>
       </c>
     </row>
     <row r="27">
